--- a/function/config/SDA INS 以太网通讯协议格式参考_V1.8_0320.xlsx
+++ b/function/config/SDA INS 以太网通讯协议格式参考_V1.8_0320.xlsx
@@ -3411,8 +3411,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]General"/>
-    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="[$-409]General"/>
   </numFmts>
   <fonts count="43">
     <font>
@@ -4150,10 +4150,10 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4172,13 +4172,13 @@
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4220,10 +4220,10 @@
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4246,7 +4246,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4262,7 +4262,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4290,7 +4290,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4299,25 +4299,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4326,13 +4326,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4347,25 +4347,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="60" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4375,13 +4375,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="71" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4390,31 +4390,31 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="76" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="64" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4433,7 +4433,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4445,13 +4445,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4463,7 +4463,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="60" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4496,32 +4496,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="75" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="75" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="75" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="75" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="75" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="8" borderId="1" xfId="75" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="75" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4533,10 +4533,10 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="75" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="75" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="75" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="75" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="75" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="75" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -4545,19 +4545,19 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="75" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4593,17 +4593,17 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
     <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
     <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="常规 2 13" xfId="31"/>
-    <cellStyle name="常规 2 13 3 3 2" xfId="32"/>
+    <cellStyle name="常规 2 13 3 3 2" xfId="31"/>
+    <cellStyle name="常规 2 13" xfId="32"/>
     <cellStyle name="汇总" xfId="33" builtinId="25"/>
     <cellStyle name="好" xfId="34" builtinId="26"/>
     <cellStyle name="常规 16" xfId="35"/>
     <cellStyle name="适中" xfId="36" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="常规 10 3 2 2 2" xfId="39"/>
-    <cellStyle name="常规 2 13 4" xfId="40"/>
-    <cellStyle name="常规 2 2 2" xfId="41"/>
+    <cellStyle name="常规 2 2 2" xfId="39"/>
+    <cellStyle name="常规 10 3 2 2 2" xfId="40"/>
+    <cellStyle name="常规 2 13 4" xfId="41"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="42" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="43" builtinId="31"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="44" builtinId="34"/>
@@ -4617,8 +4617,8 @@
     <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="53" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="54" builtinId="49"/>
-    <cellStyle name="常规 10" xfId="55"/>
-    <cellStyle name="常规 2 3" xfId="56"/>
+    <cellStyle name="常规 2 3" xfId="55"/>
+    <cellStyle name="常规 10" xfId="56"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="57" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="58" builtinId="52"/>
     <cellStyle name="常规 10 2 3" xfId="59"/>
@@ -4694,7 +4694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20059650" y="619125"/>
-          <a:ext cx="3387090" cy="1533525"/>
+          <a:ext cx="3387090" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6439,7 +6439,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="18" customHeight="1"/>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="Y2" s="24"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="3" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:25">
       <c r="A3" s="13" t="s">
         <v>111</v>
       </c>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="Y3" s="24"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="4" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:25">
       <c r="A4" s="13" t="s">
         <v>111</v>
       </c>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="Y4" s="24"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="5" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:25">
       <c r="A5" s="13" t="s">
         <v>111</v>
       </c>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="Y5" s="24"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="6" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:25">
       <c r="A6" s="13" t="s">
         <v>111</v>
       </c>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="Y6" s="24"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:25">
+    <row r="7" s="1" customFormat="1" hidden="1" customHeight="1" spans="1:25">
       <c r="A7" s="13" t="s">
         <v>111</v>
       </c>
@@ -6942,7 +6942,7 @@
       </c>
       <c r="Y7" s="24"/>
     </row>
-    <row r="8" ht="27.75" customHeight="1" spans="1:27">
+    <row r="8" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A8" s="13" t="s">
         <v>111</v>
       </c>
@@ -7011,7 +7011,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" ht="27.75" customHeight="1" spans="1:27">
+    <row r="9" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A9" s="13" t="s">
         <v>111</v>
       </c>
@@ -7080,7 +7080,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" ht="27.75" customHeight="1" spans="1:27">
+    <row r="10" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A10" s="13" t="s">
         <v>111</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" ht="27.75" customHeight="1" spans="1:27">
+    <row r="11" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A11" s="13" t="s">
         <v>111</v>
       </c>
@@ -7218,7 +7218,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" ht="27.75" customHeight="1" spans="1:27">
+    <row r="12" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A12" s="13" t="s">
         <v>111</v>
       </c>
@@ -7287,7 +7287,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" ht="27.75" customHeight="1" spans="1:27">
+    <row r="13" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A13" s="13" t="s">
         <v>111</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" ht="27.75" customHeight="1" spans="1:27">
+    <row r="14" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A14" s="13" t="s">
         <v>111</v>
       </c>
@@ -7425,7 +7425,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" ht="27.75" customHeight="1" spans="1:27">
+    <row r="15" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A15" s="13" t="s">
         <v>111</v>
       </c>
@@ -7494,7 +7494,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:27">
+    <row r="16" s="2" customFormat="1" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A16" s="13" t="s">
         <v>111</v>
       </c>
@@ -7563,7 +7563,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" ht="27.75" customHeight="1" spans="1:27">
+    <row r="17" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A17" s="13" t="s">
         <v>111</v>
       </c>
@@ -7632,7 +7632,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" ht="27.75" customHeight="1" spans="1:27">
+    <row r="18" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A18" s="13" t="s">
         <v>111</v>
       </c>
@@ -8127,7 +8127,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="27.75" customHeight="1" spans="1:27">
+    <row r="25" s="2" customFormat="1" ht="27.75" hidden="1" customHeight="1" spans="1:27">
       <c r="A25" s="13" t="s">
         <v>111</v>
       </c>
@@ -8196,7 +8196,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" customHeight="1" spans="1:27">
+    <row r="26" hidden="1" customHeight="1" spans="1:27">
       <c r="A26" s="13" t="s">
         <v>111</v>
       </c>
@@ -8265,7 +8265,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" customHeight="1" spans="1:27">
+    <row r="27" hidden="1" customHeight="1" spans="1:27">
       <c r="A27" s="13" t="s">
         <v>111</v>
       </c>
@@ -20605,7 +20605,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" hidden="1" customHeight="1" spans="1:27">
+    <row r="212" customHeight="1" spans="1:27">
       <c r="A212" s="13" t="s">
         <v>111</v>
       </c>
@@ -20672,7 +20672,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" hidden="1" customHeight="1" spans="1:27">
+    <row r="213" customHeight="1" spans="1:27">
       <c r="A213" s="13" t="s">
         <v>111</v>
       </c>
@@ -20741,7 +20741,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
     </row>
-    <row r="214" hidden="1" customHeight="1" spans="1:27">
+    <row r="214" customHeight="1" spans="1:27">
       <c r="A214" s="13" t="s">
         <v>111</v>
       </c>
@@ -20810,7 +20810,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" hidden="1" customHeight="1" spans="1:27">
+    <row r="215" customHeight="1" spans="1:27">
       <c r="A215" s="13" t="s">
         <v>111</v>
       </c>
@@ -21592,7 +21592,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
     </row>
-    <row r="226" customHeight="1" spans="1:27">
+    <row r="226" hidden="1" customHeight="1" spans="1:27">
       <c r="A226" s="13" t="s">
         <v>111</v>
       </c>
@@ -21659,7 +21659,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
     </row>
-    <row r="227" customHeight="1" spans="1:27">
+    <row r="227" hidden="1" customHeight="1" spans="1:27">
       <c r="A227" s="13" t="s">
         <v>111</v>
       </c>
@@ -21722,7 +21722,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" customHeight="1" spans="1:27">
+    <row r="228" hidden="1" customHeight="1" spans="1:27">
       <c r="A228" s="13" t="s">
         <v>111</v>
       </c>
@@ -21785,7 +21785,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" customHeight="1" spans="1:27">
+    <row r="229" hidden="1" customHeight="1" spans="1:27">
       <c r="A229" s="13" t="s">
         <v>111</v>
       </c>
@@ -21848,7 +21848,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" customHeight="1" spans="1:27">
+    <row r="230" hidden="1" customHeight="1" spans="1:27">
       <c r="A230" s="13" t="s">
         <v>111</v>
       </c>
@@ -21911,7 +21911,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" customHeight="1" spans="1:27">
+    <row r="231" hidden="1" customHeight="1" spans="1:27">
       <c r="A231" s="13" t="s">
         <v>111</v>
       </c>
@@ -21974,7 +21974,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" hidden="1" customHeight="1" spans="1:27">
+    <row r="232" customHeight="1" spans="1:27">
       <c r="A232" s="13" t="s">
         <v>111</v>
       </c>
@@ -22514,7 +22514,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" customHeight="1" spans="1:27">
+    <row r="240" hidden="1" customHeight="1" spans="1:27">
       <c r="A240" s="13" t="s">
         <v>111</v>
       </c>
@@ -22583,7 +22583,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" customHeight="1" spans="1:27">
+    <row r="241" hidden="1" customHeight="1" spans="1:27">
       <c r="A241" s="13" t="s">
         <v>111</v>
       </c>
@@ -22652,7 +22652,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" s="3" customFormat="1" customHeight="1" spans="1:27">
+    <row r="242" s="3" customFormat="1" hidden="1" customHeight="1" spans="1:27">
       <c r="A242" s="26" t="s">
         <v>111</v>
       </c>
@@ -22722,7 +22722,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" s="3" customFormat="1" customHeight="1" spans="1:27">
+    <row r="243" s="3" customFormat="1" hidden="1" customHeight="1" spans="1:27">
       <c r="A243" s="26" t="s">
         <v>111</v>
       </c>
@@ -23080,7 +23080,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" customHeight="1" spans="1:27">
+    <row r="248" hidden="1" customHeight="1" spans="1:27">
       <c r="A248" s="13" t="s">
         <v>111</v>
       </c>
@@ -23147,7 +23147,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" customHeight="1" spans="1:27">
+    <row r="249" hidden="1" customHeight="1" spans="1:27">
       <c r="A249" s="13" t="s">
         <v>111</v>
       </c>
@@ -23214,7 +23214,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" customHeight="1" spans="1:24">
+    <row r="250" hidden="1" customHeight="1" spans="1:24">
       <c r="A250" s="33" t="s">
         <v>768</v>
       </c>
@@ -23280,7 +23280,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="251" customHeight="1" spans="1:24">
+    <row r="251" hidden="1" customHeight="1" spans="1:24">
       <c r="A251" s="33" t="s">
         <v>768</v>
       </c>
@@ -28816,9 +28816,9 @@
   </sheetData>
   <autoFilter ref="A1:Y333">
     <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="equal" val="17F"/>
-      </customFilters>
+      <filters>
+        <filter val="271"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>
